--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351C37D-7CEF-4442-8529-73340732B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89992D6-5145-4A87-8732-819018B49F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="735" windowWidth="28800" windowHeight="15135" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,35 +156,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-1단계 무기(맥스랩 100) (장착 맥스쿨감 60, 장착무기공 3000)(보유공 최대 500%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4단계 무기(맥스랩 100) (장착 맥스쿨감 50 , 장착무기공 2000)(보유공 최대 200%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3단계 무기(맥스랩 100) (장착 맥스쿨감 40 , 장착무기공 1500)(보유공 최대 200%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2단계 무기(맥스랩 100) (장착 맥스쿨감 30 , 장착무기공 1000)(보유공 최대 200%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1단계 무기(맥스랩 100) (장착 맥스쿨감 20 , 장착무기공 500)(보유공 최대 200%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3단계 무기(맥스랩 100) (장착 맥스쿨감 15, , 장착무기공 300)(보유공 최대 150%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 무기(맥스랩 100) (장착 맥스쿨감 10, , 장착무기공 200)(보유공 최대 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1단계 무기(맥스랩 100) (장착 맥스쿨감 5, , 장착무기공 100)(보유공 최대 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 무기(맥스랩 100) (장착 맥스쿨감 10, , 장착무기공 500)(보유공 최대 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계 무기(맥스랩 100) (장착 맥스쿨감 15, , 장착무기공 1000)(보유공 최대 150%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1단계 무기(맥스랩 100) (장착 맥스쿨감 20 , 장착무기공 2000)(보유공 최대 500%,방관10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2단계 무기(맥스랩 100) (장착 맥스쿨감 25 , 장착무기공 3000)(보유공 최대 600%,방관15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3단계 무기(맥스랩 100) (장착 맥스쿨감 30 , 장착무기공 4000)(보유공 최대 700%,방관20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4단계 무기(맥스랩 100) (장착 맥스쿨감 35 , 장착무기공 5000)(보유공 최대 800%,방관25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1단계 무기(맥스랩 100) (장착 맥스쿨감 40, 장착무기공 10000)(보유공 최대 1000%,방관35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2단계 무기(맥스랩 100) (장착 맥스쿨감 45, 장착무기공 20000)(보유공 최대 1000%,방관45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3단계 무기(맥스랩 100) (장착 맥스쿨감 50, 장착무기공 30000)(보유공 최대 1000%,방관55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4단계 무기(맥스랩 100) (장착 맥스쿨감 55, 장착무기공 40000)(보유공 최대 1000%,방관65)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,11 +604,14 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
     <col min="8" max="9" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -648,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -692,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -707,10 +722,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -736,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -751,10 +766,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="1">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H4" s="1">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -780,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -795,10 +810,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -807,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L5" s="1">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -824,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -833,16 +848,16 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="1">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F6" s="1">
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -851,16 +866,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L6" s="1">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -868,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="1">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F7" s="1">
         <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="1">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -895,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7" s="1">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -912,25 +927,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="1">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -939,16 +954,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="L8" s="1">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1220,25 +1235,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="E15">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F15">
         <v>11</v>
       </c>
       <c r="G15">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1250,13 +1265,145 @@
         <v>0.05</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>10000</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.45</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>15000</v>
+      </c>
+      <c r="H17">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.05</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>20000</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89992D6-5145-4A87-8732-819018B49F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC69CB9-0C2C-4DC1-88A5-F37110DAED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -168,35 +168,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-1단계 무기(맥스랩 100) (장착 맥스쿨감 20 , 장착무기공 2000)(보유공 최대 500%,방관10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2단계 무기(맥스랩 100) (장착 맥스쿨감 25 , 장착무기공 3000)(보유공 최대 600%,방관15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3단계 무기(맥스랩 100) (장착 맥스쿨감 30 , 장착무기공 4000)(보유공 최대 700%,방관20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4단계 무기(맥스랩 100) (장착 맥스쿨감 35 , 장착무기공 5000)(보유공 최대 800%,방관25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1단계 무기(맥스랩 100) (장착 맥스쿨감 40, 장착무기공 10000)(보유공 최대 1000%,방관35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2단계 무기(맥스랩 100) (장착 맥스쿨감 45, 장착무기공 20000)(보유공 최대 1000%,방관45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-3단계 무기(맥스랩 100) (장착 맥스쿨감 50, 장착무기공 30000)(보유공 최대 1000%,방관55)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-4단계 무기(맥스랩 100) (장착 맥스쿨감 55, 장착무기공 40000)(보유공 최대 1000%,방관65)</t>
+    <t>5-1단계 무기(맥스랩 100) (장착 맥스쿨감 40, 장착무기공 20000)(보유공 최대 2000%,방관35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2단계 무기(맥스랩 100) (장착 맥스쿨감 45, 장착무기공 40000)(보유공 최대 3000%,방관45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3단계 무기(맥스랩 100) (장착 맥스쿨감 50, 장착무기공 60000)(보유공 최대 4000%,방관55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1단계 무기(맥스랩 100) (장착 맥스쿨감 20 , 장착무기공 3000)(보유공 최대 1000%,방관10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2단계 무기(맥스랩 100) (장착 맥스쿨감 25 , 장착무기공 6000)(보유공 최대 1200%,방관15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3단계 무기(맥스랩 100) (장착 맥스쿨감 30 , 장착무기공 9000)(보유공 최대 1400%,방관20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4단계 무기(맥스랩 100) (장착 맥스쿨감 35 , 장착무기공 12000)(보유공 최대 1600%,방관25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4단계 무기(맥스랩 100) (장착 맥스쿨감 55, 장착무기공 100000)(보유공 최대 5000%,방관65)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="88.125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="21.875" customWidth="1"/>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="1">
         <v>18</v>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -854,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="H6" s="1">
         <v>15</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="L6" s="1">
         <v>18</v>
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="H7" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L7" s="1">
         <v>18</v>
@@ -927,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -942,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="H8" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="L8" s="1">
         <v>18</v>
@@ -1235,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1250,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="G15">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="H15">
         <v>50</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
         <v>18</v>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1294,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="L16">
         <v>18</v>
@@ -1323,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1338,10 +1338,10 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="L17">
         <v>18</v>
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
         <v>18</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC69CB9-0C2C-4DC1-88A5-F37110DAED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8978BEAC-0253-4BCE-A59E-F828BD1AB8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,22 @@
   </si>
   <si>
     <t>5-4단계 무기(맥스랩 100) (장착 맥스쿨감 55, 장착무기공 100000)(보유공 최대 5000%,방관65)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1단계 마법서 (맥스랩100) (장착 스킬댐지 +500%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2단계 마법서 (맥스랩100) (장착 스킬댐지 +600%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3단계 마법서 (맥스랩100) (장착 스킬댐지 +700%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4단계 마법서 (맥스랩100) (장착 스킬댐지 +800%)(보유크리댐 최대 500%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +257,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +279,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -265,20 +294,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1054,179 +1090,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.03</v>
       </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="L11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <v>0.03</v>
       </c>
-      <c r="L12">
-        <v>-1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="L12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>0.03</v>
       </c>
-      <c r="L13">
-        <v>-1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="L13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.02</v>
       </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="F14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>0.03</v>
       </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="L14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1404,6 +1440,182 @@
       </c>
       <c r="N18">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8978BEAC-0253-4BCE-A59E-F828BD1AB8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506E4278-49A0-45AD-BFCB-E8B75A6E380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -140,22 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-1단계 마법서 (맥스랩100) (장착 스킬댐지 +150%)(보유크리댐 최대 300%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2단계 마법서 (맥스랩100) (장착 스킬댐지 +200%)(보유크리댐 최대 300%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3단계 마법서 (맥스랩100) (장착 스킬댐지 +250%)(보유크리댐 최대 300%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4단계 마법서 (맥스랩100) (장착 스킬댐지 +300%)(보유크리댐 최대 300%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1단계 무기(맥스랩 100) (장착 맥스쿨감 5, , 장착무기공 100)(보유공 최대 50%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,19 +184,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-1단계 마법서 (맥스랩100) (장착 스킬댐지 +500%)(보유크리댐 최대 500%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2단계 마법서 (맥스랩100) (장착 스킬댐지 +600%)(보유크리댐 최대 500%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3단계 마법서 (맥스랩100) (장착 스킬댐지 +700%)(보유크리댐 최대 500%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4단계 마법서 (맥스랩100) (장착 스킬댐지 +800%)(보유크리댐 최대 500%)</t>
+    <t>3-4단계 마법서 (맥스랩100) (장착 스킬댐지 +600%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2단계 마법서 (맥스랩100) (장착 스킬댐지 +400%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3단계 마법서 (맥스랩100) (장착 스킬댐지 +500%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1단계 마법서 (맥스랩100) (장착 스킬댐지 +200%)(보유크리댐 최대 500%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1단계 마법서 (맥스랩100) (장착 스킬댐지 +900%)(보유크리댐 최대 1000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2단계 마법서 (맥스랩100) (장착 스킬댐지 +1200%)(보유크리댐 최대 1000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3단계 마법서 (맥스랩100) (장착 스킬댐지 +1500%)(보유크리댐 최대 1000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4단계 마법서 (맥스랩100) (장착 스킬댐지 +1800%)(보유크리댐 최대 1000%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,28 +629,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="88.125" customWidth="1"/>
+    <col min="2" max="2" width="78.58203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
     <col min="8" max="9" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="17.58203125" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,12 +694,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -738,12 +738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -782,12 +782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -826,12 +826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -870,12 +870,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -914,12 +914,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -958,12 +958,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1002,7 +1002,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1090,30 +1090,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F11" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L11" s="2">
         <v>-1</v>
@@ -1134,30 +1134,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F12" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L12" s="2">
         <v>-1</v>
@@ -1178,30 +1178,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F13" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L13" s="2">
         <v>-1</v>
@@ -1222,30 +1222,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F14" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L14" s="2">
         <v>-1</v>
@@ -1266,12 +1266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1310,12 +1310,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1354,12 +1354,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1398,12 +1398,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1442,7 +1442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1453,19 +1453,19 @@
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2">
         <v>0.03</v>
       </c>
       <c r="F19" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2">
         <v>2</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="2">
         <v>-1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1497,19 +1497,19 @@
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>0.03</v>
       </c>
       <c r="F20" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="2">
         <v>-1</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1541,19 +1541,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2">
         <v>0.03</v>
       </c>
       <c r="F21" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="2">
         <v>-1</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1585,19 +1585,19 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
         <v>0.03</v>
       </c>
       <c r="F22" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506E4278-49A0-45AD-BFCB-E8B75A6E380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A01C4-2009-40C5-87D4-AB54519B2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -200,19 +200,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-1단계 마법서 (맥스랩100) (장착 스킬댐지 +900%)(보유크리댐 최대 1000%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2단계 마법서 (맥스랩100) (장착 스킬댐지 +1200%)(보유크리댐 최대 1000%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3단계 마법서 (맥스랩100) (장착 스킬댐지 +1500%)(보유크리댐 최대 1000%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4단계 마법서 (맥스랩100) (장착 스킬댐지 +1800%)(보유크리댐 최대 1000%)</t>
+    <t>4-1단계 마법서 (맥스랩100) (장착 스킬댐지 +1200%)(보유크리댐 최대 1000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2단계 마법서 (맥스랩100) (장착 스킬댐지 +1600%)(보유크리댐 최대 2000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3단계 마법서 (맥스랩100) (장착 스킬댐지 +2000%)(보유크리댐 최대 3000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4단계 마법서 (맥스랩100) (장착 스킬댐지 +2400%)(보유크리댐 최대 4000%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,28 +629,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="78.58203125" customWidth="1"/>
+    <col min="2" max="2" width="78.625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
     <col min="8" max="9" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="17.58203125" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L12" s="2">
         <v>-1</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L13" s="2">
         <v>-1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="L14" s="2">
         <v>-1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1453,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F19" s="2">
         <v>12</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1497,10 +1497,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F20" s="2">
         <v>12</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="2">
         <v>-1</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1541,10 +1541,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F21" s="2">
         <v>12</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L21" s="2">
         <v>-1</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1585,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F22" s="2">
         <v>12</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L22" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A01C4-2009-40C5-87D4-AB54519B2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FCA3C-557B-483C-B8CE-F371125FD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2175" yWindow="3435" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>4-4단계 마법서 (맥스랩100) (장착 스킬댐지 +2400%)(보유크리댐 최대 4000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1단계 무기(맥스랩 100) (장착 맥스쿨감 60, 장착무기공 150000)(보유공 최대 7000%,방관80)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,16 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="78.625" customWidth="1"/>
+    <col min="2" max="2" width="85.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
@@ -1618,6 +1622,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>100000</v>
+      </c>
+      <c r="H23">
+        <v>500</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.7</v>
+      </c>
+      <c r="L23">
+        <v>18</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FCA3C-557B-483C-B8CE-F371125FD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B68556B-7791-4AEC-9338-05EF8050D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3435" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,22 @@
   </si>
   <si>
     <t>6-1단계 무기(맥스랩 100) (장착 맥스쿨감 60, 장착무기공 150000)(보유공 최대 7000%,방관80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1666,6 +1682,182 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>200</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>200</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>9</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="2">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>200</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>40</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>9</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="2">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>200</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>40</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>9</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B68556B-7791-4AEC-9338-05EF8050D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2B537-EA50-424E-A979-CF8230CF186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,19 +220,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현무 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)</t>
+    <t>현무 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)(피감10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)(타격1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasEffectType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasEffectBase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasEffectValue3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,10 +679,12 @@
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
     <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,8 +727,17 @@
       <c r="N1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -757,8 +780,17 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -801,8 +833,17 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -845,8 +886,17 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -889,8 +939,17 @@
       <c r="N5" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -933,8 +992,17 @@
       <c r="N6" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -977,8 +1045,17 @@
       <c r="N7" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1021,8 +1098,17 @@
       <c r="N8" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1065,8 +1151,17 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1109,8 +1204,17 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1153,8 +1257,17 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1197,8 +1310,17 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1241,8 +1363,17 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1285,8 +1416,17 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1329,8 +1469,17 @@
       <c r="N15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1373,8 +1522,17 @@
       <c r="N16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1417,8 +1575,17 @@
       <c r="N17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1461,8 +1628,17 @@
       <c r="N18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1505,8 +1681,17 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1549,8 +1734,17 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1593,8 +1787,17 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1637,8 +1840,17 @@
       <c r="N22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1681,8 +1893,17 @@
       <c r="N23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1725,13 +1946,22 @@
       <c r="N24" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="2">
+        <v>17</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -1769,13 +1999,22 @@
       <c r="N25" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="2">
+        <v>22</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -1813,13 +2052,22 @@
       <c r="N26" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="2">
+        <v>21</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -1856,6 +2104,15 @@
       </c>
       <c r="N27" s="2">
         <v>0.01</v>
+      </c>
+      <c r="O27" s="2">
+        <v>21</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2B537-EA50-424E-A979-CF8230CF186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4D336B-D32E-4B47-AA2E-2F6AFA231B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -661,14 +661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="85.5" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1258,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,22 +1938,22 @@
         <v>0.2</v>
       </c>
       <c r="L24" s="2">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>9</v>
       </c>
-      <c r="M24" s="2">
-        <v>2</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="O24" s="2">
-        <v>17</v>
-      </c>
       <c r="P24" s="2">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1991,22 +1991,22 @@
         <v>0.2</v>
       </c>
       <c r="L25" s="2">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <v>9</v>
       </c>
-      <c r="M25" s="2">
-        <v>2</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="O25" s="2">
-        <v>22</v>
-      </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2044,22 +2044,22 @@
         <v>0.2</v>
       </c>
       <c r="L26" s="2">
+        <v>21</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O26" s="2">
         <v>9</v>
       </c>
-      <c r="M26" s="2">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="O26" s="2">
-        <v>21</v>
-      </c>
       <c r="P26" s="2">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="2">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2097,22 +2097,22 @@
         <v>0.2</v>
       </c>
       <c r="L27" s="2">
+        <v>21</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O27" s="2">
         <v>9</v>
       </c>
-      <c r="M27" s="2">
-        <v>2</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="O27" s="2">
-        <v>21</v>
-      </c>
       <c r="P27" s="2">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="2">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4D336B-D32E-4B47-AA2E-2F6AFA231B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747BCEEB-DD95-4B99-A65F-89F5A1287015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1917,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="2">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F24" s="2">
         <v>12</v>
@@ -1926,7 +1926,7 @@
         <v>60000</v>
       </c>
       <c r="H24" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="2">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="2">
         <v>12</v>
@@ -1988,7 +1988,7 @@
         <v>40</v>
       </c>
       <c r="K25" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L25" s="2">
         <v>22</v>
@@ -2032,7 +2032,7 @@
         <v>60000</v>
       </c>
       <c r="H26" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I26" s="2">
         <v>2</v>
@@ -2041,7 +2041,7 @@
         <v>40</v>
       </c>
       <c r="K26" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L26" s="2">
         <v>21</v>
@@ -2076,7 +2076,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F27" s="2">
         <v>12</v>
@@ -2085,7 +2085,7 @@
         <v>60000</v>
       </c>
       <c r="H27" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I27" s="2">
         <v>2</v>
@@ -2094,7 +2094,7 @@
         <v>40</v>
       </c>
       <c r="K27" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L27" s="2">
         <v>21</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747BCEEB-DD95-4B99-A65F-89F5A1287015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99024968-1D99-4D89-9585-B4C626E54B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5670" yWindow="1440" windowWidth="32265" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>hasEffectValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2단계 무기(맥스랩 100) (장착 맥스쿨감 70, 장착무기공 500000)(보유공 최대 20000%,방관500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,16 +663,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
@@ -2115,6 +2120,59 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.6</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>200000</v>
+      </c>
+      <c r="H28">
+        <v>3000</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>18</v>
+      </c>
+      <c r="M28">
+        <v>200</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99024968-1D99-4D89-9585-B4C626E54B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC773F8C-F597-466F-90D3-4D60F8AB314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1440" windowWidth="32265" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>6-2단계 무기(맥스랩 100) (장착 맥스쿨감 70, 장착무기공 500000)(보유공 최대 20000%,방관500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)(보스공10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2172,6 +2176,60 @@
       <c r="Q28" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>300</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>21</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="O29" s="2">
+        <v>9</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="R29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC773F8C-F597-466F-90D3-4D60F8AB314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAC217-C911-4311-850B-62A9D8D0453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -671,19 +671,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="75.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
     <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="9" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
@@ -2185,49 +2186,49 @@
         <v>44</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>0.2</v>
+        <v>50000</v>
       </c>
       <c r="F29" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G29" s="2">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
         <v>2</v>
       </c>
       <c r="J29" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="L29" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M29" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="O29" s="2">
         <v>9</v>
       </c>
       <c r="P29" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="R29" s="2"/>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAC217-C911-4311-850B-62A9D8D0453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581A07E-EF47-43F7-BF06-E86AFDB5EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
         <v>17</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581A07E-EF47-43F7-BF06-E86AFDB5EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E29D7D-F8A4-4ED9-A573-579B8A8803ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L29" s="2">
         <v>17</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E29D7D-F8A4-4ED9-A573-579B8A8803ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016F8EA-810B-4E57-91E0-EF81390BFD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2232,6 +2232,59 @@
       </c>
       <c r="R29" s="2"/>
     </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
+      </c>
+      <c r="E30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>500000</v>
+      </c>
+      <c r="H30">
+        <v>5000</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1E-3</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016F8EA-810B-4E57-91E0-EF81390BFD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16572DD-10D2-4BB6-A457-AF06F8C3A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,17 +667,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="2" max="2" width="74.75" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
@@ -2285,6 +2285,112 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.6</v>
+      </c>
+      <c r="E31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>20000000</v>
+      </c>
+      <c r="H31">
+        <v>100000</v>
+      </c>
+      <c r="I31">
+        <v>27</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.05</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.6</v>
+      </c>
+      <c r="E32">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>40000000</v>
+      </c>
+      <c r="H32">
+        <v>200000</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16572DD-10D2-4BB6-A457-AF06F8C3A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516D71FF-427A-46D4-AC71-39EBB55F9AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>황룡 (맥스랩100) (장착 스킬댐지 +4000%)(보유크리댐 최대 6000%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 (맥스랩100) (장착 스킬댐지 +1억)(보유크리댐 최대 500만%)(보스공10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2391,6 +2395,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516D71FF-427A-46D4-AC71-39EBB55F9AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445DBF99-F470-437A-BC91-8BEF622E141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2449,6 +2449,60 @@
       </c>
       <c r="R33" s="2"/>
     </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="2">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>40</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445DBF99-F470-437A-BC91-8BEF622E141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B9AC3-1116-4611-AE3E-A7863993FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>청룡 (맥스랩100) (장착 스킬댐지 +1억)(보유크리댐 최대 500만%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해태 (맥스랩100) (장착 스킬댐지 +1억)(보유크리댐 최대 500만%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼족오 (맥스랩100) (장착 스킬댐지 +1억)(보유크리댐 최대 500만%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리 (맥스랩100) (장착 스킬댐지 +1억)(보유크리댐 최대 500만%)(보스공10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2454,7 +2466,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
@@ -2502,6 +2514,114 @@
         <v>0</v>
       </c>
       <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>80</v>
+      </c>
+      <c r="L36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B9AC3-1116-4611-AE3E-A7863993FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B90D4-4702-45E5-9611-D06602172363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2583,7 +2583,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F36" s="2">
         <v>7</v>
@@ -2601,7 +2601,7 @@
         <v>6000</v>
       </c>
       <c r="K36" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L36" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B90D4-4702-45E5-9611-D06602172363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CA07A-75FC-4CE9-A4A7-C134FD39ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2623,6 +2623,59 @@
       </c>
       <c r="R36" s="2"/>
     </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0.6</v>
+      </c>
+      <c r="E37">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>60000000</v>
+      </c>
+      <c r="H37">
+        <v>400000</v>
+      </c>
+      <c r="I37">
+        <v>27</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.15</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CA07A-75FC-4CE9-A4A7-C134FD39ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3276B1E1-68CB-400C-98C0-292FD6CB2BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2676,6 +2676,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0.6</v>
+      </c>
+      <c r="E38">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>140000000</v>
+      </c>
+      <c r="H38">
+        <v>600000</v>
+      </c>
+      <c r="I38">
+        <v>27</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.4</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3276B1E1-68CB-400C-98C0-292FD6CB2BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CAAA41-C6ED-47EB-A9CD-EE50AC92EE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2729,6 +2729,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>150</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CAAA41-C6ED-47EB-A9CD-EE50AC92EE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F14E98-AD3F-4B56-8965-5012068AF514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2783,6 +2783,113 @@
       </c>
       <c r="R39" s="2"/>
     </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2">
+        <v>4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K40" s="2">
+        <v>200</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0.6</v>
+      </c>
+      <c r="E41">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>200000000</v>
+      </c>
+      <c r="H41">
+        <v>1000000</v>
+      </c>
+      <c r="I41">
+        <v>27</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F14E98-AD3F-4B56-8965-5012068AF514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F65DAA7-EFA0-4321-940A-63109C7AB182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8355" yWindow="5580" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2890,6 +2890,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0.6</v>
+      </c>
+      <c r="E42">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>200000000</v>
+      </c>
+      <c r="H42">
+        <v>1000000</v>
+      </c>
+      <c r="I42">
+        <v>27</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.6</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F65DAA7-EFA0-4321-940A-63109C7AB182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5731D-CD53-4CAE-9CE1-E311DE58542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="5580" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2910,7 +2910,7 @@
         <v>11</v>
       </c>
       <c r="G42">
-        <v>200000000</v>
+        <v>300000000</v>
       </c>
       <c r="H42">
         <v>1000000</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="L42">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5731D-CD53-4CAE-9CE1-E311DE58542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE95E9-40B2-4F45-BE99-797EA71D0C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4125" yWindow="3225" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>병아리 (맥스랩100) (장착 스킬댐지 +1억)(보유크리댐 최대 500만%)(보스공10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼적안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2943,6 +2951,113 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0.6</v>
+      </c>
+      <c r="E43">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>400000000</v>
+      </c>
+      <c r="H43">
+        <v>1000000</v>
+      </c>
+      <c r="I43">
+        <v>27</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1.5</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>25</v>
+      </c>
+      <c r="I44" s="2">
+        <v>4</v>
+      </c>
+      <c r="J44" s="2">
+        <v>25000</v>
+      </c>
+      <c r="K44" s="2">
+        <v>250</v>
+      </c>
+      <c r="L44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE95E9-40B2-4F45-BE99-797EA71D0C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A30F7-370A-4ECE-9654-3CBB1017B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3225" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,14 @@
   </si>
   <si>
     <t>삼적안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,34 +699,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="74.75" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="74.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="15" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="15.09765625" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" customWidth="1"/>
+    <col min="13" max="13" width="16.8984375" customWidth="1"/>
+    <col min="14" max="15" width="16.09765625" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" customWidth="1"/>
+    <col min="17" max="17" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -824,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -877,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -930,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -983,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1672,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1725,7 +1733,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1778,7 +1786,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1937,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2043,7 +2051,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2096,7 +2104,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2202,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2256,7 +2264,7 @@
       </c>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2469,7 +2477,7 @@
       </c>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2523,7 +2531,7 @@
       </c>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2577,7 +2585,7 @@
       </c>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2631,7 +2639,7 @@
       </c>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2791,7 +2799,7 @@
       </c>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2845,7 +2853,7 @@
       </c>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2898,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2951,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3057,6 +3065,113 @@
         <v>0</v>
       </c>
       <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0.6</v>
+      </c>
+      <c r="E45">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>400000000</v>
+      </c>
+      <c r="H45">
+        <v>1000000</v>
+      </c>
+      <c r="I45">
+        <v>27</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1.5</v>
+      </c>
+      <c r="L45">
+        <v>-1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2">
+        <v>25000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>250</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A30F7-370A-4ECE-9654-3CBB1017B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E8C76E-E4D1-4CE7-8453-2068B5EF0220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -703,30 +703,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="74.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="74.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.09765625" customWidth="1"/>
-    <col min="12" max="12" width="17.59765625" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" customWidth="1"/>
-    <col min="14" max="15" width="16.09765625" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" customWidth="1"/>
-    <col min="17" max="17" width="10.69921875" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3086,10 +3086,10 @@
         <v>11</v>
       </c>
       <c r="G45">
-        <v>400000000</v>
+        <v>600000000</v>
       </c>
       <c r="H45">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="I45">
         <v>27</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L45">
         <v>-1</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3130,10 +3130,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="2">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="E46" s="2">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="F46" s="2">
         <v>7</v>
@@ -3142,16 +3142,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
       </c>
       <c r="J46" s="2">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="K46" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L46" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E8C76E-E4D1-4CE7-8453-2068B5EF0220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941E0F67-2A0D-4843-9D2B-681C45B037F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t>구미호노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3173,6 +3177,60 @@
       </c>
       <c r="R46" s="2"/>
     </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>4</v>
+      </c>
+      <c r="J47" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>500</v>
+      </c>
+      <c r="L47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941E0F67-2A0D-4843-9D2B-681C45B037F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBEE298-C698-4AB9-A614-9CCFA6712F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>천마노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차사검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3231,6 +3239,113 @@
       </c>
       <c r="R47" s="2"/>
     </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0.6</v>
+      </c>
+      <c r="E48">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F48">
+        <v>35</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I48">
+        <v>27</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>120000</v>
+      </c>
+      <c r="F49" s="2">
+        <v>35</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>4</v>
+      </c>
+      <c r="J49" s="2">
+        <v>60000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>600</v>
+      </c>
+      <c r="L49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBEE298-C698-4AB9-A614-9CCFA6712F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7337D-DD16-483E-8F1F-1938FC419C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,22 @@
   </si>
   <si>
     <t>지옥노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3346,6 +3362,220 @@
       </c>
       <c r="R49" s="2"/>
     </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0.6</v>
+      </c>
+      <c r="E50">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I50">
+        <v>27</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0.6</v>
+      </c>
+      <c r="E51">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F51">
+        <v>35</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I51">
+        <v>27</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>120000</v>
+      </c>
+      <c r="F52" s="2">
+        <v>35</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>4</v>
+      </c>
+      <c r="J52" s="2">
+        <v>60000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>600</v>
+      </c>
+      <c r="L52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>120000</v>
+      </c>
+      <c r="F53" s="2">
+        <v>35</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>4</v>
+      </c>
+      <c r="J53" s="2">
+        <v>60000</v>
+      </c>
+      <c r="K53" s="2">
+        <v>600</v>
+      </c>
+      <c r="L53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7337D-DD16-483E-8F1F-1938FC419C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0BD82-23E0-4825-9EDD-2A35332AE239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I50">
         <v>27</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L50">
         <v>-1</v>
@@ -3479,10 +3479,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="E52" s="2">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="F52" s="2">
         <v>35</v>
@@ -3491,16 +3491,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I52" s="2">
         <v>4</v>
       </c>
       <c r="J52" s="2">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K52" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L52" s="2">
         <v>-1</v>
@@ -3533,10 +3533,10 @@
         <v>4</v>
       </c>
       <c r="D53" s="2">
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="E53" s="2">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="F53" s="2">
         <v>35</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I53" s="2">
         <v>4</v>
       </c>
       <c r="J53" s="2">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K53" s="2">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L53" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0BD82-23E0-4825-9EDD-2A35332AE239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C244E16-6973-437F-9788-5F6B779C8885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -730,8 +730,8 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I51">
         <v>27</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L51">
         <v>-1</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I52" s="2">
         <v>4</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I53" s="2">
         <v>4</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C244E16-6973-437F-9788-5F6B779C8885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F7988-F0A0-40AD-82F0-93A42524CB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,14 @@
   </si>
   <si>
     <t>여래노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3576,6 +3584,113 @@
       </c>
       <c r="R53" s="2"/>
     </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0.6</v>
+      </c>
+      <c r="E54">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F54">
+        <v>35</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I54">
+        <v>27</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>-1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F55" s="2">
+        <v>35</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F7988-F0A0-40AD-82F0-93A42524CB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723749FE-0E9D-4B3F-9898-09663F68D2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,14 @@
   </si>
   <si>
     <t>강림노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,11 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3691,6 +3699,113 @@
       </c>
       <c r="R55" s="2"/>
     </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0.6</v>
+      </c>
+      <c r="E56">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F56">
+        <v>35</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I56">
+        <v>27</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>15</v>
+      </c>
+      <c r="L56">
+        <v>-1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F57" s="2">
+        <v>35</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>4</v>
+      </c>
+      <c r="J57" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723749FE-0E9D-4B3F-9898-09663F68D2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6C029-9EFF-4745-B7C9-7808B005D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I56">
         <v>27</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L56">
         <v>-1</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="I57" s="2">
         <v>4</v>
@@ -3784,7 +3784,7 @@
         <v>100000</v>
       </c>
       <c r="K57" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="L57" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6C029-9EFF-4745-B7C9-7808B005D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2A2DF5-978F-47F2-B6C3-E1FACD60DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,14 @@
   </si>
   <si>
     <t>불멸 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사인검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3806,6 +3814,112 @@
       </c>
       <c r="R57" s="2"/>
     </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.6</v>
+      </c>
+      <c r="E58">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F58">
+        <v>35</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I58">
+        <v>27</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>35</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>27</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2A2DF5-978F-47F2-B6C3-E1FACD60DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89919FC6-FDD8-4D8A-8365-BA63624FABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -754,8 +754,8 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3874,8 +3874,8 @@
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" s="2">
+        <v>-1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="J59">
         <v>0</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89919FC6-FDD8-4D8A-8365-BA63624FABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A93F88-831E-4798-9E7C-C39F35AA25A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="40545" yWindow="3285" windowWidth="24000" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,17 @@
   <si>
     <t>외형용</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀노리개2</t>
   </si>
 </sst>
 </file>
@@ -751,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3920,6 +3931,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F60" s="2">
+        <v>35</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I60" s="2">
+        <v>4</v>
+      </c>
+      <c r="J60" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F61" s="2">
+        <v>35</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I61" s="2">
+        <v>4</v>
+      </c>
+      <c r="J61" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F62" s="2">
+        <v>35</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4</v>
+      </c>
+      <c r="J62" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A93F88-831E-4798-9E7C-C39F35AA25A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCC6F8-DE5A-4FC8-A972-AF2C4E28FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3285" windowWidth="24000" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +400,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +427,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -429,15 +442,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,9 +463,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,7 +786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3664,59 +3684,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="2">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3">
         <v>40000000</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>250000</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>35</v>
       </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I55" s="2">
-        <v>4</v>
-      </c>
-      <c r="J55" s="2">
+      <c r="I55" s="3">
+        <v>4</v>
+      </c>
+      <c r="J55" s="3">
         <v>100000</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="3">
         <v>1200</v>
       </c>
-      <c r="L55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2"/>
+      <c r="L55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
@@ -3771,59 +3790,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="2">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="C57" s="3">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
         <v>40000000</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>250000</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>35</v>
       </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>0.02</v>
       </c>
-      <c r="I57" s="2">
-        <v>4</v>
-      </c>
-      <c r="J57" s="2">
+      <c r="I57" s="3">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
         <v>100000</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2"/>
+      <c r="L57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
@@ -3948,13 +3966,13 @@
         <v>250000</v>
       </c>
       <c r="F60" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.02</v>
+        <v>1.5E-3</v>
       </c>
       <c r="I60" s="2">
         <v>4</v>
@@ -3963,7 +3981,7 @@
         <v>100000</v>
       </c>
       <c r="K60" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L60" s="2">
         <v>-1</v>
@@ -4002,13 +4020,13 @@
         <v>250000</v>
       </c>
       <c r="F61" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.02</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I61" s="2">
         <v>4</v>
@@ -4017,7 +4035,7 @@
         <v>100000</v>
       </c>
       <c r="K61" s="2">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L61" s="2">
         <v>-1</v>
@@ -4056,13 +4074,13 @@
         <v>250000</v>
       </c>
       <c r="F62" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.02</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="I62" s="2">
         <v>4</v>
@@ -4071,7 +4089,7 @@
         <v>100000</v>
       </c>
       <c r="K62" s="2">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L62" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCC6F8-DE5A-4FC8-A972-AF2C4E28FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E648485E-CB91-4EC1-AE44-CDF88ACA0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>선녀노리개2</t>
+  </si>
+  <si>
+    <t>선녀노리개3</t>
+  </si>
+  <si>
+    <t>선녀노리개4</t>
   </si>
 </sst>
 </file>
@@ -782,11 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4111,6 +4117,112 @@
       </c>
       <c r="R62" s="2"/>
     </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F63" s="2">
+        <v>36</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I63" s="2">
+        <v>4</v>
+      </c>
+      <c r="J63" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K63" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F64" s="2">
+        <v>36</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I64" s="2">
+        <v>4</v>
+      </c>
+      <c r="J64" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K64" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E648485E-CB91-4EC1-AE44-CDF88ACA0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE3940-A611-4C59-AF4D-F98867501232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="I63" s="2">
         <v>4</v>
@@ -4149,7 +4149,7 @@
         <v>100000</v>
       </c>
       <c r="K63" s="2">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L63" s="2">
         <v>-1</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I64" s="2">
         <v>4</v>
@@ -4202,7 +4202,7 @@
         <v>100000</v>
       </c>
       <c r="K64" s="2">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L64" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE3940-A611-4C59-AF4D-F98867501232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B5627B-AE48-400E-9500-DBE7EBEDA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3120" yWindow="1800" windowWidth="29220" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="2">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
@@ -2863,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="J39" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K39" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L39" s="2">
         <v>-1</v>
@@ -2917,10 +2917,10 @@
         <v>4</v>
       </c>
       <c r="J40" s="2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K40" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L40" s="2">
         <v>-1</v>
@@ -3130,10 +3130,10 @@
         <v>4</v>
       </c>
       <c r="J44" s="2">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="K44" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L44" s="2">
         <v>-1</v>
@@ -3240,7 +3240,7 @@
         <v>40000</v>
       </c>
       <c r="K46" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L46" s="2">
         <v>-1</v>
@@ -3398,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="2">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="K49" s="2">
         <v>600</v>
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="3">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="K55" s="3">
         <v>1200</v>
@@ -3825,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="3">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -3984,10 +3984,10 @@
         <v>4</v>
       </c>
       <c r="J60" s="2">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="K60" s="2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L60" s="2">
         <v>-1</v>
@@ -4038,10 +4038,10 @@
         <v>4</v>
       </c>
       <c r="J61" s="2">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="K61" s="2">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="L61" s="2">
         <v>-1</v>
@@ -4092,10 +4092,10 @@
         <v>4</v>
       </c>
       <c r="J62" s="2">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="K62" s="2">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L62" s="2">
         <v>-1</v>
@@ -4146,10 +4146,10 @@
         <v>4</v>
       </c>
       <c r="J63" s="2">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="K63" s="2">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="L63" s="2">
         <v>-1</v>
@@ -4199,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="J64" s="2">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="K64" s="2">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="L64" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B5627B-AE48-400E-9500-DBE7EBEDA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20FE2C-93F7-4B57-9982-7ABB3B2CC157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1800" windowWidth="29220" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3984,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="2">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="K60" s="2">
         <v>20000</v>
@@ -4038,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="2">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="K61" s="2">
         <v>25000</v>
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="2">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="K62" s="2">
         <v>30000</v>
@@ -4146,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="J63" s="2">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="K63" s="2">
         <v>35000</v>
@@ -4199,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="J64" s="2">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="K64" s="2">
         <v>40000</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20FE2C-93F7-4B57-9982-7ABB3B2CC157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A406EC-ADE7-4169-B02B-73E507FC7898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7710" yWindow="1485" windowWidth="25080" windowHeight="12750" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>선녀노리개4</t>
+  </si>
+  <si>
+    <t>천계검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,11 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4223,6 +4231,112 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>0.6</v>
+      </c>
+      <c r="E65">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F65">
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I65">
+        <v>27</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>25</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0.6</v>
+      </c>
+      <c r="E66">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F66">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I66">
+        <v>27</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>25</v>
+      </c>
+      <c r="L66">
+        <v>-1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A406EC-ADE7-4169-B02B-73E507FC7898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9177818-224B-427D-8A58-2AC87CC77AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="1485" windowWidth="25080" windowHeight="12750" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -800,7 +800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4248,13 +4248,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="F65">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I65">
         <v>27</v>
@@ -4301,13 +4301,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="F66">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I66">
         <v>27</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9177818-224B-427D-8A58-2AC87CC77AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBD480-A7B9-43CB-B7F5-D4DBFA92A5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,22 @@
   </si>
   <si>
     <t>천계검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀노리개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀노리개6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4337,6 +4353,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>0.6</v>
+      </c>
+      <c r="E67">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F67">
+        <v>36</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I67">
+        <v>27</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>25</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>0.6</v>
+      </c>
+      <c r="E68">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F68">
+        <v>36</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I68">
+        <v>27</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>25</v>
+      </c>
+      <c r="L68">
+        <v>-1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F69" s="2">
+        <v>36</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I69" s="2">
+        <v>4</v>
+      </c>
+      <c r="J69" s="2">
+        <v>500000</v>
+      </c>
+      <c r="K69" s="2">
+        <v>45000</v>
+      </c>
+      <c r="L69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F70" s="2">
+        <v>36</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>4</v>
+      </c>
+      <c r="J70" s="2">
+        <v>550000</v>
+      </c>
+      <c r="K70" s="2">
+        <v>45000</v>
+      </c>
+      <c r="L70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBD480-A7B9-43CB-B7F5-D4DBFA92A5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1DDE74-40E8-4A25-9D0D-5C39A05D6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="I60" s="2">
         <v>4</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="I61" s="2">
         <v>4</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="I62" s="2">
         <v>4</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>5.4999999999999997E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="I63" s="2">
         <v>4</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>7.4999999999999997E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="I64" s="2">
         <v>4</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I69" s="2">
         <v>4</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>1.15E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="I70" s="2">
         <v>4</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1DDE74-40E8-4A25-9D0D-5C39A05D6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE32510D-B98C-4E5F-9C2C-DCB740E61AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,26 @@
   <si>
     <t>선녀노리개6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검1</t>
+  </si>
+  <si>
+    <t>도깨비검2</t>
+  </si>
+  <si>
+    <t>도깨비노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비노리개1</t>
+  </si>
+  <si>
+    <t>도깨비노리개2</t>
   </si>
 </sst>
 </file>
@@ -812,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4565,6 +4585,324 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0.6</v>
+      </c>
+      <c r="E71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F71">
+        <v>37</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I71">
+        <v>27</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>25</v>
+      </c>
+      <c r="L71">
+        <v>-1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0.6</v>
+      </c>
+      <c r="E72">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F72">
+        <v>37</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I72">
+        <v>27</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <v>-1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>0.6</v>
+      </c>
+      <c r="E73">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F73">
+        <v>37</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I73">
+        <v>27</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>25</v>
+      </c>
+      <c r="L73">
+        <v>-1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F74" s="2">
+        <v>37</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.95E-2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>4</v>
+      </c>
+      <c r="J74" s="2">
+        <v>600000</v>
+      </c>
+      <c r="K74" s="2">
+        <v>45000</v>
+      </c>
+      <c r="L74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F75" s="2">
+        <v>37</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>4</v>
+      </c>
+      <c r="J75" s="2">
+        <v>650000</v>
+      </c>
+      <c r="K75" s="2">
+        <v>45000</v>
+      </c>
+      <c r="L75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F76" s="2">
+        <v>37</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I76" s="2">
+        <v>4</v>
+      </c>
+      <c r="J76" s="2">
+        <v>700000</v>
+      </c>
+      <c r="K76" s="2">
+        <v>45000</v>
+      </c>
+      <c r="L76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE32510D-B98C-4E5F-9C2C-DCB740E61AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420E8B9-3C6D-4BF2-B508-3708D49FFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4564,7 +4564,7 @@
         <v>550000</v>
       </c>
       <c r="K70" s="2">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="L70" s="2">
         <v>-1</v>
@@ -4602,7 +4602,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="F71">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L71">
         <v>-1</v>
@@ -4655,7 +4655,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="F72">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L72">
         <v>-1</v>
@@ -4708,7 +4708,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="F73">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L73">
         <v>-1</v>
@@ -4758,16 +4758,16 @@
         <v>40000000</v>
       </c>
       <c r="E74" s="2">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F74" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <v>1.95E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I74" s="2">
         <v>4</v>
@@ -4776,7 +4776,7 @@
         <v>600000</v>
       </c>
       <c r="K74" s="2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L74" s="2">
         <v>-1</v>
@@ -4811,16 +4811,16 @@
         <v>40000000</v>
       </c>
       <c r="E75" s="2">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F75" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>2.2499999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="I75" s="2">
         <v>4</v>
@@ -4829,7 +4829,7 @@
         <v>650000</v>
       </c>
       <c r="K75" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="L75" s="2">
         <v>-1</v>
@@ -4864,16 +4864,16 @@
         <v>40000000</v>
       </c>
       <c r="E76" s="2">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F76" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>2.5499999999999998E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="I76" s="2">
         <v>4</v>
@@ -4882,7 +4882,7 @@
         <v>700000</v>
       </c>
       <c r="K76" s="2">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="L76" s="2">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420E8B9-3C6D-4BF2-B508-3708D49FFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEFCD5-7B53-4AB1-9814-3D6EE2808558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4585,321 +4585,321 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>3</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>0.6</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>39</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I71">
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I71" s="3">
         <v>27</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
         <v>30</v>
       </c>
-      <c r="L71">
-        <v>-1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="L71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>0.6</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>39</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>0.03</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>27</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>30</v>
       </c>
-      <c r="L72">
-        <v>-1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="L72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>0.6</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>39</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I73">
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I73" s="3">
         <v>27</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
         <v>30</v>
       </c>
-      <c r="L73">
-        <v>-1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="L73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="2">
-        <v>4</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3">
         <v>40000000</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>300000</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>39</v>
       </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>1.35E-2</v>
-      </c>
-      <c r="I74" s="2">
-        <v>4</v>
-      </c>
-      <c r="J74" s="2">
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I74" s="3">
+        <v>4</v>
+      </c>
+      <c r="J74" s="3">
         <v>600000</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="3">
         <v>55000</v>
       </c>
-      <c r="L74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0</v>
-      </c>
-      <c r="O74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P74" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="L74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="2">
-        <v>4</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
         <v>40000000</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>300000</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>39</v>
       </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="I75" s="2">
-        <v>4</v>
-      </c>
-      <c r="J75" s="2">
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I75" s="3">
+        <v>4</v>
+      </c>
+      <c r="J75" s="3">
         <v>650000</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="3">
         <v>60000</v>
       </c>
-      <c r="L75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M75" s="2">
-        <v>0</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0</v>
-      </c>
-      <c r="O75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P75" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="L75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="2">
-        <v>4</v>
-      </c>
-      <c r="D76" s="2">
+      <c r="C76" s="3">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3">
         <v>40000000</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>300000</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>39</v>
       </c>
-      <c r="G76" s="2">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1.95E-2</v>
-      </c>
-      <c r="I76" s="2">
-        <v>4</v>
-      </c>
-      <c r="J76" s="2">
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
         <v>700000</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="3">
         <v>65000</v>
       </c>
-      <c r="L76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M76" s="2">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-      <c r="O76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P76" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="2">
+      <c r="L76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEFCD5-7B53-4AB1-9814-3D6EE2808558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204750C-069A-4C7C-AB4F-ABF5A95FA976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="1800" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
   <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>1.5E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I75" s="3">
         <v>4</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>2E-3</v>
+        <v>0.02</v>
       </c>
       <c r="I76" s="3">
         <v>4</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204750C-069A-4C7C-AB4F-ABF5A95FA976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC1F4B-DA27-4361-A1B3-B54BB9DF3C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1800" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>도깨비노리개2</t>
+  </si>
+  <si>
+    <t>12월 월간 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -832,11 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4267,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4902,6 +4906,60 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0</v>
+      </c>
+      <c r="R77" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC1F4B-DA27-4361-A1B3-B54BB9DF3C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023A2C5-239A-4561-8D65-BC1BC84D2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16110" windowHeight="12360" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,22 @@
   </si>
   <si>
     <t>12월 월간 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비노리개3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비노리개4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,11 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4961,6 +4977,218 @@
       </c>
       <c r="R77" s="2"/>
     </row>
+    <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F78" s="3">
+        <v>39</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I78" s="3">
+        <v>27</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>30</v>
+      </c>
+      <c r="L78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F79" s="3">
+        <v>39</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I79" s="3">
+        <v>27</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>30</v>
+      </c>
+      <c r="L79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="3">
+        <v>4</v>
+      </c>
+      <c r="D80" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F80" s="3">
+        <v>39</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I80" s="3">
+        <v>4</v>
+      </c>
+      <c r="J80" s="3">
+        <v>750000</v>
+      </c>
+      <c r="K80" s="3">
+        <v>70000</v>
+      </c>
+      <c r="L80" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>39</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>800000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>75000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023A2C5-239A-4561-8D65-BC1BC84D2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA34CF2-E72D-4CB4-B23C-E19B17C75742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16110" windowHeight="12360" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,22 @@
   </si>
   <si>
     <t>도깨비노리개4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비노리개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비노리개6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5189,6 +5205,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F82" s="3">
+        <v>39</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I82" s="3">
+        <v>27</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>30</v>
+      </c>
+      <c r="L82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
+      </c>
+      <c r="O82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>39</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I83" s="3">
+        <v>27</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>30</v>
+      </c>
+      <c r="L83" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="3">
+        <v>4</v>
+      </c>
+      <c r="D84" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E84" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F84" s="3">
+        <v>39</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I84" s="3">
+        <v>4</v>
+      </c>
+      <c r="J84" s="3">
+        <v>850000</v>
+      </c>
+      <c r="K84" s="3">
+        <v>80000</v>
+      </c>
+      <c r="L84" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F85" s="3">
+        <v>39</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I85" s="3">
+        <v>4</v>
+      </c>
+      <c r="J85" s="3">
+        <v>900000</v>
+      </c>
+      <c r="K85" s="3">
+        <v>85000</v>
+      </c>
+      <c r="L85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA34CF2-E72D-4CB4-B23C-E19B17C75742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB713D8-0643-44D2-86A3-D0C8533AED69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,22 @@
   </si>
   <si>
     <t>도깨비노리개6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡검(진)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,11 +884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5417,6 +5433,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I86" s="3">
+        <v>4</v>
+      </c>
+      <c r="J86" s="3">
+        <v>950000</v>
+      </c>
+      <c r="K86" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I87" s="3">
+        <v>4</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K87" s="3">
+        <v>95000</v>
+      </c>
+      <c r="L87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I88" s="3">
+        <v>4</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K88" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="K89" s="3">
+        <v>105000</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB713D8-0643-44D2-86A3-D0C8533AED69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5EF928-7507-4831-89C8-A63558A81024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -886,9 +886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5456,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="I86" s="3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J86" s="3">
-        <v>950000</v>
+        <v>4000</v>
       </c>
       <c r="K86" s="3">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="L86" s="3">
         <v>-1</v>
@@ -5509,16 +5509,16 @@
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I87" s="3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J87" s="3">
-        <v>1000000</v>
+        <v>4500</v>
       </c>
       <c r="K87" s="3">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="L87" s="3">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J88" s="3">
-        <v>1050000</v>
+        <v>5000</v>
       </c>
       <c r="K88" s="3">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L88" s="3">
         <v>-1</v>
@@ -5615,16 +5615,16 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J89" s="3">
-        <v>1100000</v>
+        <v>5500</v>
       </c>
       <c r="K89" s="3">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-1</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5EF928-7507-4831-89C8-A63558A81024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9708541-E4F9-4133-995E-2F33E2EBF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,36 @@
   </si>
   <si>
     <t>청룡검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검7</t>
+  </si>
+  <si>
+    <t>도깨비검8</t>
+  </si>
+  <si>
+    <t>도깨비검9</t>
+  </si>
+  <si>
+    <t>도깨비노리개7</t>
+  </si>
+  <si>
+    <t>도깨비노리개8</t>
+  </si>
+  <si>
+    <t>도깨비노리개9</t>
+  </si>
+  <si>
+    <t>수미산검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날외형검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,11 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5645,6 +5675,483 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F90" s="3">
+        <v>39</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="I90" s="3">
+        <v>27</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>30</v>
+      </c>
+      <c r="L90" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>39</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I91" s="3">
+        <v>27</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>30</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F92" s="3">
+        <v>39</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="I92" s="3">
+        <v>27</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>30</v>
+      </c>
+      <c r="L92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4</v>
+      </c>
+      <c r="D93" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E93" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F93" s="3">
+        <v>39</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I93" s="3">
+        <v>4</v>
+      </c>
+      <c r="J93" s="3">
+        <v>950000</v>
+      </c>
+      <c r="K93" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L93" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="3">
+        <v>4</v>
+      </c>
+      <c r="D94" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>39</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I94" s="3">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>95000</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E95" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F95" s="3">
+        <v>39</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I95" s="3">
+        <v>4</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K95" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F96" s="3">
+        <v>43</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I96" s="3">
+        <v>27</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>30</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4</v>
+      </c>
+      <c r="D97" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E97" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F97" s="3">
+        <v>43</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I97" s="3">
+        <v>4</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="K97" s="3">
+        <v>105000</v>
+      </c>
+      <c r="L97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>300</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>-1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9708541-E4F9-4133-995E-2F33E2EBF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA733BE-47F5-4326-BA79-39B53CFC847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,81 @@
   </si>
   <si>
     <t>설날외형검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반지0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반지1</t>
+  </si>
+  <si>
+    <t>반지2</t>
+  </si>
+  <si>
+    <t>반지3</t>
+  </si>
+  <si>
+    <t>반지4</t>
+  </si>
+  <si>
+    <t>반지5</t>
+  </si>
+  <si>
+    <t>반지6</t>
+  </si>
+  <si>
+    <t>반지7</t>
+  </si>
+  <si>
+    <t>반지8</t>
+  </si>
+  <si>
+    <t>반지9</t>
+  </si>
+  <si>
+    <t>반지10</t>
+  </si>
+  <si>
+    <t>반지11</t>
+  </si>
+  <si>
+    <t>반지12</t>
+  </si>
+  <si>
+    <t>반지13</t>
+  </si>
+  <si>
+    <t>반지14</t>
+  </si>
+  <si>
+    <t>반지15</t>
+  </si>
+  <si>
+    <t>반지16</t>
+  </si>
+  <si>
+    <t>반지17</t>
+  </si>
+  <si>
+    <t>반지18</t>
+  </si>
+  <si>
+    <t>반지19</t>
+  </si>
+  <si>
+    <t>반지20</t>
+  </si>
+  <si>
+    <t>반지21</t>
+  </si>
+  <si>
+    <t>수미산검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산노리개1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,16 +989,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.75" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
@@ -6106,8 +6181,8 @@
       <c r="B98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="2">
-        <v>-1</v>
+      <c r="C98">
+        <v>41</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -6128,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="J98">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6149,6 +6224,1278 @@
         <v>0</v>
       </c>
       <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99">
+        <v>41</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>-1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>-1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100">
+        <v>41</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>-1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>-1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101">
+        <v>41</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>-1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>-1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102">
+        <v>41</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>-1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>-1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103">
+        <v>41</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>-1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>-1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104">
+        <v>41</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>-1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>-1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105">
+        <v>41</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>-1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>10</v>
+      </c>
+      <c r="J105">
+        <v>8</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>-1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106">
+        <v>38</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>-1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+      <c r="J106">
+        <v>9</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>-1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107">
+        <v>38</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>-1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>-1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108">
+        <v>38</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>-1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+      <c r="J108">
+        <v>11</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>-1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109">
+        <v>38</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>-1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="J109">
+        <v>12</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>-1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>38</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>-1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+      <c r="J110">
+        <v>13</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>-1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111">
+        <v>38</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>-1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+      <c r="J111">
+        <v>14</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>-1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112">
+        <v>38</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>-1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>15</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>-1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113">
+        <v>38</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>-1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+      <c r="J113">
+        <v>16</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>-1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114">
+        <v>40</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>-1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
+      <c r="J114">
+        <v>17</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>-1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115">
+        <v>40</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>-1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <v>18</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>-1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116">
+        <v>40</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>-1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+      <c r="J116">
+        <v>19</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>-1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117">
+        <v>40</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>-1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>20</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>-1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118">
+        <v>40</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>-1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>21</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>-1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>-1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>22</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>-1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120">
+        <v>40</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>-1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>10</v>
+      </c>
+      <c r="J120">
+        <v>23</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>-1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P120" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F121" s="3">
+        <v>43</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I121" s="3">
+        <v>27</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>30</v>
+      </c>
+      <c r="L121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M121" s="3">
+        <v>0</v>
+      </c>
+      <c r="N121" s="3">
+        <v>0</v>
+      </c>
+      <c r="O121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P121" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4</v>
+      </c>
+      <c r="D122" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E122" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F122" s="3">
+        <v>43</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I122" s="3">
+        <v>4</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="K122" s="3">
+        <v>110000</v>
+      </c>
+      <c r="L122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M122" s="3">
+        <v>0</v>
+      </c>
+      <c r="N122" s="3">
+        <v>0</v>
+      </c>
+      <c r="O122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P122" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA733BE-47F5-4326-BA79-39B53CFC847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A9DC3-2045-4CB3-BB98-84D34E3DFAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -991,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J119" sqref="J119"/>
+      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6203,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="K98">
         <v>0</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A9DC3-2045-4CB3-BB98-84D34E3DFAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C6CFDF-EBF2-4907-BFF4-5E05A290793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -991,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6182,7 +6182,7 @@
         <v>104</v>
       </c>
       <c r="C98">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -6253,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -6306,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -6359,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -6412,10 +6412,10 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J103">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -6518,10 +6518,10 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J104">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -6571,10 +6571,10 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J105">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J106">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -6783,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J109">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -6836,10 +6836,10 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J110">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6889,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J111">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -6942,10 +6942,10 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J112">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -6995,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J113">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -7048,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J114">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J115">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -7154,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J116">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -7207,10 +7207,10 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J117">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J118">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -7313,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J119">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -7366,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J120">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>0</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C6CFDF-EBF2-4907-BFF4-5E05A290793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1466A8E0-6820-439E-8CBC-CF568128DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,21 @@
   </si>
   <si>
     <t>수미산노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산검3</t>
+  </si>
+  <si>
+    <t>수미산노리개2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산노리개3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7499,6 +7514,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F123" s="3">
+        <v>43</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I123" s="3">
+        <v>27</v>
+      </c>
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>30</v>
+      </c>
+      <c r="L123" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M123" s="3">
+        <v>0</v>
+      </c>
+      <c r="N123" s="3">
+        <v>0</v>
+      </c>
+      <c r="O123" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P123" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F124" s="3">
+        <v>43</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I124" s="3">
+        <v>27</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>30</v>
+      </c>
+      <c r="L124" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M124" s="3">
+        <v>0</v>
+      </c>
+      <c r="N124" s="3">
+        <v>0</v>
+      </c>
+      <c r="O124" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P124" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E125" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F125" s="3">
+        <v>43</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I125" s="3">
+        <v>4</v>
+      </c>
+      <c r="J125" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="K125" s="3">
+        <v>115000</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0</v>
+      </c>
+      <c r="N125" s="3">
+        <v>0</v>
+      </c>
+      <c r="O125" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P125" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" s="3">
+        <v>4</v>
+      </c>
+      <c r="D126" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E126" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F126" s="3">
+        <v>43</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I126" s="3">
+        <v>4</v>
+      </c>
+      <c r="J126" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="K126" s="3">
+        <v>120000</v>
+      </c>
+      <c r="L126" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M126" s="3">
+        <v>0</v>
+      </c>
+      <c r="N126" s="3">
+        <v>0</v>
+      </c>
+      <c r="O126" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P126" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
